--- a/Corte de Apelaciones de Arica/1-2013302#3#1-C-ingresos-2021-6.xlsx
+++ b/Corte de Apelaciones de Arica/1-2013302#3#1-C-ingresos-2021-6.xlsx
@@ -109,10 +109,10 @@
     <t>Perpetua Memoria, Información</t>
   </si>
   <si>
+    <t>Otros Ejecutivos</t>
+  </si>
+  <si>
     <t>Arrendamiento,Desahucio Contrato Bienes Raíces Urbanos</t>
-  </si>
-  <si>
-    <t>Otros Ejecutivos</t>
   </si>
   <si>
     <t>Corte De Apelaciones De Arica</t>
